--- a/NEW HR/DONE/PADILLA, JANE ZARAGOZA.xlsx
+++ b/NEW HR/DONE/PADILLA, JANE ZARAGOZA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5652A0-5297-4FD8-AC04-6D32FE01155A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120B9DA2-D76F-4EB1-99D4-453A25BC78C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,23 +33,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
   <si>
     <t>PERIOD</t>
   </si>
@@ -229,6 +218,12 @@
   </si>
   <si>
     <t>12/26-30/2022</t>
+  </si>
+  <si>
+    <t>VL(10-0-0)</t>
+  </si>
+  <si>
+    <t>7/3-14/2023</t>
   </si>
 </sst>
 </file>
@@ -610,14 +605,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -627,9 +625,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2547,7 +2542,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2944,9 +2939,9 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="N62" sqref="N62"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2976,14 +2971,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -2994,14 +2989,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3014,16 +3009,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3049,18 +3044,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3107,7 +3102,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3117,7 +3112,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4531,13 +4526,15 @@
         <v>45017</v>
       </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4549,13 +4546,15 @@
         <v>45047</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -5404,17 +5403,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5450,9 +5449,9 @@
   <dimension ref="A2:K71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A25" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5482,14 +5481,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5500,14 +5499,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -5520,16 +5519,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -5555,18 +5554,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -5613,7 +5612,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.082999999999998</v>
+        <v>17.082999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5669,7 +5668,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
+      <c r="A12" s="48" t="s">
+        <v>57</v>
+      </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13"/>
       <c r="D12" s="39"/>
@@ -5682,17 +5683,25 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="40">
+        <v>45103</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="39"/>
+      <c r="D13" s="39">
+        <v>10</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
       <c r="G13" s="13"/>
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
